--- a/Sprint_Docs/Sprint1/FinalSprint1Doc.xlsx
+++ b/Sprint_Docs/Sprint1/FinalSprint1Doc.xlsx
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="182">
   <si>
     <t>User Stories</t>
   </si>
@@ -710,6 +710,9 @@
   <si>
     <t>Total Hours</t>
   </si>
+  <si>
+    <t>done</t>
+  </si>
 </sst>
 </file>
 
@@ -1157,6 +1160,9 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1175,11 +1181,38 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1198,36 +1231,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1750,11 +1753,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-284082432"/>
-        <c:axId val="-284073728"/>
+        <c:axId val="-1231104752"/>
+        <c:axId val="-1231110736"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-284082432"/>
+        <c:axId val="-1231104752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1792,7 +1795,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-284073728"/>
+        <c:crossAx val="-1231110736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1800,7 +1803,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-284073728"/>
+        <c:axId val="-1231110736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1852,7 +1855,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-284082432"/>
+        <c:crossAx val="-1231104752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4007,20 +4010,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
       <c r="D1" s="38"/>
-      <c r="E1" s="47"/>
+      <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
       <c r="D2" s="38"/>
-      <c r="E2" s="47"/>
+      <c r="E2" s="48"/>
     </row>
     <row r="3" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
@@ -5534,16 +5537,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="49"/>
+      <c r="B1" s="50"/>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50"/>
-      <c r="B2" s="51"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
     </row>
@@ -5982,21 +5985,21 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="61"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
     </row>
     <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="66" t="s">
+      <c r="A35" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="B35" s="67"/>
-      <c r="C35" s="68">
+      <c r="B35" s="54"/>
+      <c r="C35" s="55">
         <f>SUM(C4:C34)</f>
         <v>274</v>
       </c>
-      <c r="D35" s="69"/>
+      <c r="D35" s="56"/>
     </row>
     <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6955,10 +6958,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="53"/>
+      <c r="B1" s="59"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -13175,7 +13178,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23:P23"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13192,88 +13195,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="31" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
     </row>
     <row r="2" spans="1:20" s="31" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
     </row>
     <row r="3" spans="1:20" s="31" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="66" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="H3" s="56" t="s">
+      <c r="H3" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56" t="s">
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56" t="s">
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66" t="s">
         <v>156</v>
       </c>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
     </row>
     <row r="4" spans="1:20" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
       <c r="G4" s="35" t="s">
         <v>21</v>
       </c>
@@ -13439,7 +13442,7 @@
         <v>145</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
@@ -13816,45 +13819,45 @@
       <c r="P21" s="43"/>
     </row>
     <row r="22" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="60"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="60"/>
-      <c r="P22" s="60"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="63"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="B23" s="63">
+      <c r="B23" s="60">
         <f>SUM(B5:B22)</f>
         <v>112</v>
       </c>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="64"/>
-      <c r="P23" s="65"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="62"/>
     </row>
     <row r="24" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
@@ -30346,7 +30349,7 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:P3"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E21">
       <formula1>"to do, parked, in progress, done, blocked, dropped"</formula1>
     </dataValidation>
@@ -30387,38 +30390,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="58" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="58" t="s">
+      <c r="F2" s="59"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
@@ -41540,13 +41543,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">

--- a/Sprint_Docs/Sprint1/FinalSprint1Doc.xlsx
+++ b/Sprint_Docs/Sprint1/FinalSprint1Doc.xlsx
@@ -838,7 +838,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -884,6 +884,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE7AF13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,7 +1031,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1231,6 +1237,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1753,11 +1762,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1231104752"/>
-        <c:axId val="-1231110736"/>
+        <c:axId val="-2095017392"/>
+        <c:axId val="-2095015216"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-1231104752"/>
+        <c:axId val="-2095017392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1795,7 +1804,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1231110736"/>
+        <c:crossAx val="-2095015216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1803,7 +1812,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1231110736"/>
+        <c:axId val="-2095015216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1855,7 +1864,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1231104752"/>
+        <c:crossAx val="-2095017392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13178,7 +13187,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13441,7 +13450,7 @@
       <c r="D9" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="70" t="s">
         <v>181</v>
       </c>
       <c r="F9" s="43"/>
@@ -13801,8 +13810,8 @@
       <c r="D21" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="E21" s="44" t="s">
-        <v>141</v>
+      <c r="E21" s="70" t="s">
+        <v>181</v>
       </c>
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>

--- a/Sprint_Docs/Sprint1/FinalSprint1Doc.xlsx
+++ b/Sprint_Docs/Sprint1/FinalSprint1Doc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="186">
   <si>
     <t>User Stories</t>
   </si>
@@ -714,7 +714,16 @@
     <t>in progress</t>
   </si>
   <si>
-    <t>Finish Home Page</t>
+    <t>Home page, icon</t>
+  </si>
+  <si>
+    <t>connection</t>
+  </si>
+  <si>
+    <t>Almost done</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -841,7 +850,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -887,6 +896,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE7AF13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,7 +1049,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1234,6 +1255,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1620,31 +1647,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>137</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>129</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>120</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1719,28 +1746,28 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>142</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>124.25</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>106.5</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>88.75</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>71</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53.25</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.5</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.75</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1757,11 +1784,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-906032128"/>
-        <c:axId val="-906044096"/>
+        <c:axId val="-230301984"/>
+        <c:axId val="-230296000"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-906032128"/>
+        <c:axId val="-230301984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1800,7 +1827,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-906044096"/>
+        <c:crossAx val="-230296000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1808,7 +1835,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-906044096"/>
+        <c:axId val="-230296000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1861,7 +1888,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-906032128"/>
+        <c:crossAx val="-230301984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5529,8 +5556,8 @@
   <dimension ref="A1:T954"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35:B35"/>
+      <pane ySplit="3" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5579,7 +5606,7 @@
         <v>107</v>
       </c>
       <c r="C4" s="42">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D4" s="42" t="s">
         <v>62</v>
@@ -5593,7 +5620,7 @@
         <v>109</v>
       </c>
       <c r="C5" s="42">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D5" s="42" t="s">
         <v>62</v>
@@ -5607,7 +5634,7 @@
         <v>110</v>
       </c>
       <c r="C6" s="42">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D6" s="42" t="s">
         <v>62</v>
@@ -5621,7 +5648,7 @@
         <v>140</v>
       </c>
       <c r="C7" s="42">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D7" s="42" t="s">
         <v>62</v>
@@ -5635,7 +5662,7 @@
         <v>112</v>
       </c>
       <c r="C8" s="42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" s="42" t="s">
         <v>62</v>
@@ -5649,7 +5676,7 @@
         <v>114</v>
       </c>
       <c r="C9" s="42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" s="42" t="s">
         <v>62</v>
@@ -5663,7 +5690,7 @@
         <v>116</v>
       </c>
       <c r="C10" s="42">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D10" s="42" t="s">
         <v>62</v>
@@ -5677,7 +5704,7 @@
         <v>117</v>
       </c>
       <c r="C11" s="42">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D11" s="42" t="s">
         <v>62</v>
@@ -5691,7 +5718,7 @@
         <v>118</v>
       </c>
       <c r="C12" s="42">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D12" s="42" t="s">
         <v>62</v>
@@ -5705,7 +5732,7 @@
         <v>136</v>
       </c>
       <c r="C13" s="42">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D13" s="42" t="s">
         <v>62</v>
@@ -5719,7 +5746,7 @@
         <v>119</v>
       </c>
       <c r="C14" s="42">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D14" s="42" t="s">
         <v>62</v>
@@ -5733,7 +5760,7 @@
         <v>120</v>
       </c>
       <c r="C15" s="42">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D15" s="42" t="s">
         <v>62</v>
@@ -5747,7 +5774,7 @@
         <v>121</v>
       </c>
       <c r="C16" s="42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" s="42" t="s">
         <v>62</v>
@@ -5761,7 +5788,7 @@
         <v>122</v>
       </c>
       <c r="C17" s="42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" s="42" t="s">
         <v>62</v>
@@ -5775,7 +5802,7 @@
         <v>124</v>
       </c>
       <c r="C18" s="42">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D18" s="42" t="s">
         <v>137</v>
@@ -5789,7 +5816,7 @@
         <v>125</v>
       </c>
       <c r="C19" s="42">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D19" s="42" t="s">
         <v>65</v>
@@ -5803,7 +5830,7 @@
         <v>169</v>
       </c>
       <c r="C20" s="42">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D20" s="42" t="s">
         <v>65</v>
@@ -5817,7 +5844,7 @@
         <v>170</v>
       </c>
       <c r="C21" s="42">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D21" s="42" t="s">
         <v>137</v>
@@ -5831,7 +5858,7 @@
         <v>127</v>
       </c>
       <c r="C22" s="42">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D22" s="42" t="s">
         <v>62</v>
@@ -5845,7 +5872,7 @@
         <v>128</v>
       </c>
       <c r="C23" s="42">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D23" s="42" t="s">
         <v>65</v>
@@ -5859,7 +5886,7 @@
         <v>129</v>
       </c>
       <c r="C24" s="42">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D24" s="42" t="s">
         <v>65</v>
@@ -5873,7 +5900,7 @@
         <v>130</v>
       </c>
       <c r="C25" s="42">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D25" s="42" t="s">
         <v>62</v>
@@ -5887,7 +5914,7 @@
         <v>138</v>
       </c>
       <c r="C26" s="42">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D26" s="42" t="s">
         <v>137</v>
@@ -5901,7 +5928,7 @@
         <v>132</v>
       </c>
       <c r="C27" s="42">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D27" s="42" t="s">
         <v>137</v>
@@ -5915,7 +5942,7 @@
         <v>139</v>
       </c>
       <c r="C28" s="42">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D28" s="42" t="s">
         <v>62</v>
@@ -5929,7 +5956,7 @@
         <v>133</v>
       </c>
       <c r="C29" s="42">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D29" s="42" t="s">
         <v>65</v>
@@ -5943,7 +5970,7 @@
         <v>171</v>
       </c>
       <c r="C30" s="42">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D30" s="42" t="s">
         <v>65</v>
@@ -5957,7 +5984,7 @@
         <v>172</v>
       </c>
       <c r="C31" s="42">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D31" s="42" t="s">
         <v>65</v>
@@ -5971,7 +5998,7 @@
         <v>173</v>
       </c>
       <c r="C32" s="42">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D32" s="42" t="s">
         <v>65</v>
@@ -5985,7 +6012,7 @@
         <v>135</v>
       </c>
       <c r="C33" s="42">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D33" s="42" t="s">
         <v>65</v>
@@ -6004,7 +6031,7 @@
       <c r="B35" s="54"/>
       <c r="C35" s="55">
         <f>SUM(C4:C34)</f>
-        <v>274</v>
+        <v>548</v>
       </c>
       <c r="D35" s="56"/>
     </row>
@@ -6951,7 +6978,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -13183,9 +13210,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T992"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O15" sqref="O15"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13320,7 +13347,7 @@
         <v>107</v>
       </c>
       <c r="B5" s="42">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C5" s="42" t="s">
         <v>62</v>
@@ -13328,7 +13355,7 @@
       <c r="D5" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="71" t="s">
         <v>181</v>
       </c>
       <c r="F5" s="43" t="s">
@@ -13336,27 +13363,39 @@
       </c>
       <c r="G5" s="43"/>
       <c r="H5" s="42">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I5" s="43">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J5" s="43">
         <v>28</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
+      <c r="K5" s="43">
+        <v>25</v>
+      </c>
+      <c r="L5" s="43">
+        <v>24</v>
+      </c>
+      <c r="M5" s="43">
+        <v>22</v>
+      </c>
+      <c r="N5" s="43">
+        <v>22</v>
+      </c>
+      <c r="O5" s="43">
+        <v>22</v>
+      </c>
+      <c r="P5" s="43">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:20" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
         <v>109</v>
       </c>
       <c r="B6" s="42">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C6" s="42" t="s">
         <v>62</v>
@@ -13364,33 +13403,47 @@
       <c r="D6" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="F6" s="43"/>
+      <c r="E6" s="71" t="s">
+        <v>181</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>184</v>
+      </c>
       <c r="G6" s="43"/>
       <c r="H6" s="42">
+        <v>24</v>
+      </c>
+      <c r="I6" s="42">
+        <v>22</v>
+      </c>
+      <c r="J6" s="42">
+        <v>19</v>
+      </c>
+      <c r="K6" s="43">
+        <v>15</v>
+      </c>
+      <c r="L6" s="43">
         <v>12</v>
       </c>
-      <c r="I6" s="42">
-        <v>12</v>
-      </c>
-      <c r="J6" s="42">
-        <v>12</v>
-      </c>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
+      <c r="M6" s="43">
+        <v>8</v>
+      </c>
+      <c r="N6" s="43">
+        <v>8</v>
+      </c>
+      <c r="O6" s="43">
+        <v>8</v>
+      </c>
+      <c r="P6" s="43">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:20" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
         <v>110</v>
       </c>
       <c r="B7" s="42">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C7" s="42" t="s">
         <v>62</v>
@@ -13398,33 +13451,47 @@
       <c r="D7" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="E7" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="F7" s="43"/>
+      <c r="E7" s="71" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>183</v>
+      </c>
       <c r="G7" s="43"/>
       <c r="H7" s="42">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I7" s="42">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J7" s="42">
-        <v>4</v>
-      </c>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
+        <v>6</v>
+      </c>
+      <c r="K7" s="42">
+        <v>6</v>
+      </c>
+      <c r="L7" s="42">
+        <v>6</v>
+      </c>
+      <c r="M7" s="42">
+        <v>6</v>
+      </c>
+      <c r="N7" s="42">
+        <v>6</v>
+      </c>
+      <c r="O7" s="42">
+        <v>6</v>
+      </c>
+      <c r="P7" s="42">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:20" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
         <v>143</v>
       </c>
       <c r="B8" s="42">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C8" s="42" t="s">
         <v>62</v>
@@ -13432,33 +13499,45 @@
       <c r="D8" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="E8" s="44" t="s">
-        <v>141</v>
+      <c r="E8" s="71" t="s">
+        <v>181</v>
       </c>
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="42">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I8" s="42">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J8" s="42">
-        <v>4</v>
-      </c>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
+        <v>6</v>
+      </c>
+      <c r="K8" s="42">
+        <v>6</v>
+      </c>
+      <c r="L8" s="42">
+        <v>6</v>
+      </c>
+      <c r="M8" s="42">
+        <v>6</v>
+      </c>
+      <c r="N8" s="42">
+        <v>6</v>
+      </c>
+      <c r="O8" s="42">
+        <v>6</v>
+      </c>
+      <c r="P8" s="42">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:20" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>112</v>
       </c>
       <c r="B9" s="42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C9" s="42" t="s">
         <v>62</v>
@@ -13466,33 +13545,45 @@
       <c r="D9" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="E9" s="44" t="s">
-        <v>141</v>
+      <c r="E9" s="70" t="s">
+        <v>185</v>
       </c>
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="42">
+        <v>4</v>
+      </c>
+      <c r="I9" s="42">
+        <v>4</v>
+      </c>
+      <c r="J9" s="42">
+        <v>4</v>
+      </c>
+      <c r="K9" s="42">
         <v>2</v>
       </c>
-      <c r="I9" s="42">
-        <v>2</v>
-      </c>
-      <c r="J9" s="42">
-        <v>2</v>
-      </c>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
+      <c r="L9" s="42">
+        <v>0</v>
+      </c>
+      <c r="M9" s="42">
+        <v>0</v>
+      </c>
+      <c r="N9" s="42">
+        <v>0</v>
+      </c>
+      <c r="O9" s="42">
+        <v>0</v>
+      </c>
+      <c r="P9" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:20" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
         <v>114</v>
       </c>
       <c r="B10" s="42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10" s="42" t="s">
         <v>62</v>
@@ -13506,27 +13597,39 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I10" s="42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J10" s="42">
-        <v>2</v>
-      </c>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
+        <v>4</v>
+      </c>
+      <c r="K10" s="42">
+        <v>4</v>
+      </c>
+      <c r="L10" s="42">
+        <v>4</v>
+      </c>
+      <c r="M10" s="42">
+        <v>4</v>
+      </c>
+      <c r="N10" s="42">
+        <v>4</v>
+      </c>
+      <c r="O10" s="42">
+        <v>4</v>
+      </c>
+      <c r="P10" s="42">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:20" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
         <v>116</v>
       </c>
       <c r="B11" s="42">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C11" s="42" t="s">
         <v>62</v>
@@ -13540,27 +13643,39 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="42">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I11" s="42">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J11" s="42">
-        <v>6</v>
-      </c>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
+        <v>12</v>
+      </c>
+      <c r="K11" s="42">
+        <v>12</v>
+      </c>
+      <c r="L11" s="42">
+        <v>12</v>
+      </c>
+      <c r="M11" s="42">
+        <v>12</v>
+      </c>
+      <c r="N11" s="42">
+        <v>12</v>
+      </c>
+      <c r="O11" s="42">
+        <v>12</v>
+      </c>
+      <c r="P11" s="42">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:20" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>117</v>
       </c>
       <c r="B12" s="42">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C12" s="42" t="s">
         <v>62</v>
@@ -13574,27 +13689,39 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="42">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I12" s="42">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J12" s="42">
-        <v>4</v>
-      </c>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
+        <v>8</v>
+      </c>
+      <c r="K12" s="42">
+        <v>8</v>
+      </c>
+      <c r="L12" s="42">
+        <v>8</v>
+      </c>
+      <c r="M12" s="42">
+        <v>8</v>
+      </c>
+      <c r="N12" s="42">
+        <v>8</v>
+      </c>
+      <c r="O12" s="42">
+        <v>8</v>
+      </c>
+      <c r="P12" s="42">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:20" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
         <v>118</v>
       </c>
       <c r="B13" s="42">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C13" s="42" t="s">
         <v>62</v>
@@ -13608,27 +13735,39 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="42">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I13" s="42">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J13" s="42">
-        <v>4</v>
-      </c>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
+        <v>8</v>
+      </c>
+      <c r="K13" s="42">
+        <v>8</v>
+      </c>
+      <c r="L13" s="42">
+        <v>8</v>
+      </c>
+      <c r="M13" s="42">
+        <v>8</v>
+      </c>
+      <c r="N13" s="42">
+        <v>8</v>
+      </c>
+      <c r="O13" s="42">
+        <v>8</v>
+      </c>
+      <c r="P13" s="42">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="1:20" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A14" s="40" t="s">
         <v>136</v>
       </c>
       <c r="B14" s="42">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C14" s="42" t="s">
         <v>62</v>
@@ -13642,27 +13781,39 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="42">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I14" s="42">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J14" s="42">
-        <v>8</v>
-      </c>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
+        <v>16</v>
+      </c>
+      <c r="K14" s="42">
+        <v>16</v>
+      </c>
+      <c r="L14" s="42">
+        <v>16</v>
+      </c>
+      <c r="M14" s="42">
+        <v>16</v>
+      </c>
+      <c r="N14" s="42">
+        <v>16</v>
+      </c>
+      <c r="O14" s="42">
+        <v>16</v>
+      </c>
+      <c r="P14" s="42">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" spans="1:20" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A15" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B15" s="42">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C15" s="42" t="s">
         <v>62</v>
@@ -13676,27 +13827,39 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="42">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I15" s="42">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J15" s="42">
-        <v>8</v>
-      </c>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
+        <v>16</v>
+      </c>
+      <c r="K15" s="42">
+        <v>16</v>
+      </c>
+      <c r="L15" s="42">
+        <v>16</v>
+      </c>
+      <c r="M15" s="42">
+        <v>16</v>
+      </c>
+      <c r="N15" s="42">
+        <v>16</v>
+      </c>
+      <c r="O15" s="42">
+        <v>16</v>
+      </c>
+      <c r="P15" s="42">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:20" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
         <v>120</v>
       </c>
       <c r="B16" s="42">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C16" s="42" t="s">
         <v>62</v>
@@ -13710,27 +13873,39 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="42">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I16" s="42">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J16" s="42">
-        <v>10</v>
-      </c>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
+        <v>20</v>
+      </c>
+      <c r="K16" s="42">
+        <v>20</v>
+      </c>
+      <c r="L16" s="42">
+        <v>20</v>
+      </c>
+      <c r="M16" s="42">
+        <v>20</v>
+      </c>
+      <c r="N16" s="42">
+        <v>20</v>
+      </c>
+      <c r="O16" s="42">
+        <v>20</v>
+      </c>
+      <c r="P16" s="42">
+        <v>20</v>
+      </c>
     </row>
     <row r="17" spans="1:16" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
         <v>121</v>
       </c>
       <c r="B17" s="42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C17" s="42" t="s">
         <v>62</v>
@@ -13744,27 +13919,39 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I17" s="42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J17" s="42">
-        <v>2</v>
-      </c>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
+        <v>4</v>
+      </c>
+      <c r="K17" s="42">
+        <v>4</v>
+      </c>
+      <c r="L17" s="42">
+        <v>4</v>
+      </c>
+      <c r="M17" s="42">
+        <v>4</v>
+      </c>
+      <c r="N17" s="42">
+        <v>4</v>
+      </c>
+      <c r="O17" s="42">
+        <v>4</v>
+      </c>
+      <c r="P17" s="42">
+        <v>4</v>
+      </c>
     </row>
     <row r="18" spans="1:16" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>122</v>
       </c>
       <c r="B18" s="42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C18" s="42" t="s">
         <v>62</v>
@@ -13778,27 +13965,39 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I18" s="42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J18" s="42">
-        <v>2</v>
-      </c>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
+        <v>4</v>
+      </c>
+      <c r="K18" s="42">
+        <v>4</v>
+      </c>
+      <c r="L18" s="42">
+        <v>4</v>
+      </c>
+      <c r="M18" s="42">
+        <v>4</v>
+      </c>
+      <c r="N18" s="42">
+        <v>4</v>
+      </c>
+      <c r="O18" s="42">
+        <v>4</v>
+      </c>
+      <c r="P18" s="42">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="1:16" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
         <v>127</v>
       </c>
       <c r="B19" s="42">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C19" s="42" t="s">
         <v>62</v>
@@ -13812,27 +14011,39 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="42">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I19" s="42">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J19" s="42">
-        <v>10</v>
-      </c>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
+        <v>20</v>
+      </c>
+      <c r="K19" s="42">
+        <v>20</v>
+      </c>
+      <c r="L19" s="42">
+        <v>20</v>
+      </c>
+      <c r="M19" s="42">
+        <v>20</v>
+      </c>
+      <c r="N19" s="42">
+        <v>20</v>
+      </c>
+      <c r="O19" s="42">
+        <v>20</v>
+      </c>
+      <c r="P19" s="42">
+        <v>20</v>
+      </c>
     </row>
     <row r="20" spans="1:16" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A20" s="40" t="s">
         <v>130</v>
       </c>
       <c r="B20" s="42">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C20" s="42" t="s">
         <v>62</v>
@@ -13846,27 +14057,39 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="42">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I20" s="42">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J20" s="42">
-        <v>4</v>
-      </c>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
+        <v>8</v>
+      </c>
+      <c r="K20" s="42">
+        <v>8</v>
+      </c>
+      <c r="L20" s="42">
+        <v>8</v>
+      </c>
+      <c r="M20" s="42">
+        <v>8</v>
+      </c>
+      <c r="N20" s="42">
+        <v>8</v>
+      </c>
+      <c r="O20" s="42">
+        <v>8</v>
+      </c>
+      <c r="P20" s="42">
+        <v>8</v>
+      </c>
     </row>
     <row r="21" spans="1:16" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
         <v>139</v>
       </c>
       <c r="B21" s="43">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C21" s="42" t="s">
         <v>62</v>
@@ -13874,26 +14097,38 @@
       <c r="D21" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="E21" s="44" t="s">
-        <v>141</v>
+      <c r="E21" s="70" t="s">
+        <v>185</v>
       </c>
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="43">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I21" s="43">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J21" s="43">
-        <v>10</v>
-      </c>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
+        <v>11</v>
+      </c>
+      <c r="K21" s="43">
+        <v>7</v>
+      </c>
+      <c r="L21" s="43">
+        <v>2</v>
+      </c>
+      <c r="M21" s="43">
+        <v>0</v>
+      </c>
+      <c r="N21" s="43">
+        <v>0</v>
+      </c>
+      <c r="O21" s="43">
+        <v>0</v>
+      </c>
+      <c r="P21" s="43">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="63"/>
@@ -13919,7 +14154,7 @@
       </c>
       <c r="B23" s="60">
         <f>SUM(B5:B22)</f>
-        <v>142</v>
+        <v>224</v>
       </c>
       <c r="C23" s="61"/>
       <c r="D23" s="61"/>
@@ -30454,7 +30689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
@@ -30576,39 +30811,39 @@
       </c>
       <c r="B5" s="26">
         <f>SUM('Sprint 1'!H5:H21)</f>
-        <v>137</v>
+        <v>224</v>
       </c>
       <c r="C5" s="26">
         <f>SUM('Sprint 1'!I5:I21)</f>
-        <v>129</v>
+        <v>211</v>
       </c>
       <c r="D5" s="26">
         <f>SUM('Sprint 1'!J5:J21)</f>
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="E5" s="26">
         <f>SUM('Sprint 1'!K5:K21)</f>
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="F5" s="26">
         <f>SUM('Sprint 1'!L5:L21)</f>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="G5" s="26">
         <f>SUM('Sprint 1'!M5:M21)</f>
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="H5" s="26">
         <f>SUM('Sprint 1'!N5:N21)</f>
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="I5" s="26">
         <f>SUM('Sprint 1'!O5:O21)</f>
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="J5" s="26">
         <f>SUM('Sprint 1'!P5:P21)</f>
-        <v>0</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30617,35 +30852,35 @@
       </c>
       <c r="B6" s="27">
         <f>SUM('Sprint 1'!$B$5:$B$21)-(((B4-1)*SUM('Sprint 1'!$B$5:$B$21))/($J$4-1))</f>
-        <v>142</v>
+        <v>224</v>
       </c>
       <c r="C6" s="28">
         <f>SUM('Sprint 1'!$B$5:$B$21)-(((C4-1)*SUM('Sprint 1'!$B$5:$B$21))/($J$4-1))</f>
-        <v>124.25</v>
+        <v>196</v>
       </c>
       <c r="D6" s="29">
         <f>SUM('Sprint 1'!$B$5:$B$21)-(((D4-1)*SUM('Sprint 1'!$B$5:$B$21))/($J$4-1))</f>
-        <v>106.5</v>
+        <v>168</v>
       </c>
       <c r="E6" s="27">
         <f>SUM('Sprint 1'!$B$5:$B$21)-(((E4-1)*SUM('Sprint 1'!$B$5:$B$21))/($J$4-1))</f>
-        <v>88.75</v>
+        <v>140</v>
       </c>
       <c r="F6" s="28">
         <f>SUM('Sprint 1'!$B$5:$B$21)-(((F4-1)*SUM('Sprint 1'!$B$5:$B$21))/($J$4-1))</f>
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="G6" s="29">
         <f>SUM('Sprint 1'!$B$5:$B$21)-(((G4-1)*SUM('Sprint 1'!$B$5:$B$21))/($J$4-1))</f>
-        <v>53.25</v>
+        <v>84</v>
       </c>
       <c r="H6" s="27">
         <f>SUM('Sprint 1'!$B$5:$B$21)-(((H4-1)*SUM('Sprint 1'!$B$5:$B$21))/($J$4-1))</f>
-        <v>35.5</v>
+        <v>56</v>
       </c>
       <c r="I6" s="28">
         <f>SUM('Sprint 1'!$B$5:$B$21)-(((I4-1)*SUM('Sprint 1'!$B$5:$B$21))/($J$4-1))</f>
-        <v>17.75</v>
+        <v>28</v>
       </c>
       <c r="J6" s="29">
         <f>SUM('Sprint 1'!$B$5:$B$21)-(((J4-1)*SUM('Sprint 1'!$B$5:$B$21))/($J$4-1))</f>

--- a/Sprint_Docs/Sprint1/FinalSprint1Doc.xlsx
+++ b/Sprint_Docs/Sprint1/FinalSprint1Doc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
@@ -1187,6 +1187,12 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1255,12 +1261,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1650,28 +1650,28 @@
                   <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>211</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>194</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>181</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>170</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>162</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>162</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>162</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>162</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1784,11 +1784,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-230301984"/>
-        <c:axId val="-230296000"/>
+        <c:axId val="504382480"/>
+        <c:axId val="504383024"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-230301984"/>
+        <c:axId val="504382480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1827,7 +1827,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-230296000"/>
+        <c:crossAx val="504383024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1835,7 +1835,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-230296000"/>
+        <c:axId val="504383024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1888,7 +1888,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-230301984"/>
+        <c:crossAx val="504382480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4044,20 +4044,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
       <c r="D1" s="38"/>
-      <c r="E1" s="48"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="38"/>
-      <c r="E2" s="48"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
@@ -5571,16 +5571,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="50"/>
+      <c r="B1" s="52"/>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="51"/>
-      <c r="B2" s="52"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
     </row>
@@ -6019,21 +6019,21 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="57"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
+      <c r="A34" s="59"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
     </row>
     <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="53" t="s">
+      <c r="A35" s="55" t="s">
         <v>180</v>
       </c>
-      <c r="B35" s="54"/>
-      <c r="C35" s="55">
+      <c r="B35" s="56"/>
+      <c r="C35" s="57">
         <f>SUM(C4:C34)</f>
         <v>548</v>
       </c>
-      <c r="D35" s="56"/>
+      <c r="D35" s="58"/>
     </row>
     <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6992,10 +6992,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="61"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -13210,9 +13210,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T992"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13229,88 +13229,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="31" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
     </row>
     <row r="2" spans="1:20" s="31" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
     </row>
     <row r="3" spans="1:20" s="31" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="68" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="H3" s="66" t="s">
+      <c r="H3" s="68" t="s">
         <v>151</v>
       </c>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66" t="s">
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66" t="s">
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
     </row>
     <row r="4" spans="1:20" ht="17.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
       <c r="G4" s="35" t="s">
         <v>21</v>
       </c>
@@ -13355,7 +13355,7 @@
       <c r="D5" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="48" t="s">
         <v>181</v>
       </c>
       <c r="F5" s="43" t="s">
@@ -13369,25 +13369,25 @@
         <v>34</v>
       </c>
       <c r="J5" s="43">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K5" s="43">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="L5" s="43">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M5" s="43">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="N5" s="43">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="O5" s="43">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="P5" s="43">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="13.5" x14ac:dyDescent="0.25">
@@ -13403,7 +13403,7 @@
       <c r="D6" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="71" t="s">
+      <c r="E6" s="48" t="s">
         <v>181</v>
       </c>
       <c r="F6" s="43" t="s">
@@ -13429,13 +13429,13 @@
         <v>8</v>
       </c>
       <c r="N6" s="43">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O6" s="43">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P6" s="43">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="13.5" x14ac:dyDescent="0.25">
@@ -13451,7 +13451,7 @@
       <c r="D7" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="E7" s="71" t="s">
+      <c r="E7" s="48" t="s">
         <v>181</v>
       </c>
       <c r="F7" s="43" t="s">
@@ -13477,13 +13477,13 @@
         <v>6</v>
       </c>
       <c r="N7" s="42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O7" s="42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P7" s="42">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="13.5" x14ac:dyDescent="0.25">
@@ -13499,7 +13499,7 @@
       <c r="D8" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="E8" s="71" t="s">
+      <c r="E8" s="48" t="s">
         <v>181</v>
       </c>
       <c r="F8" s="43"/>
@@ -13508,28 +13508,28 @@
         <v>8</v>
       </c>
       <c r="I8" s="42">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J8" s="42">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K8" s="42">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L8" s="42">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M8" s="42">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N8" s="42">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O8" s="42">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P8" s="42">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="13.5" x14ac:dyDescent="0.25">
@@ -13545,7 +13545,7 @@
       <c r="D9" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="E9" s="70" t="s">
+      <c r="E9" s="47" t="s">
         <v>185</v>
       </c>
       <c r="F9" s="43"/>
@@ -13729,8 +13729,8 @@
       <c r="D13" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="E13" s="44" t="s">
-        <v>141</v>
+      <c r="E13" s="48" t="s">
+        <v>181</v>
       </c>
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
@@ -13738,28 +13738,28 @@
         <v>8</v>
       </c>
       <c r="I13" s="42">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J13" s="42">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K13" s="42">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L13" s="42">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M13" s="42">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N13" s="42">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O13" s="42">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P13" s="42">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="13.5" x14ac:dyDescent="0.25">
@@ -13775,8 +13775,8 @@
       <c r="D14" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="E14" s="44" t="s">
-        <v>141</v>
+      <c r="E14" s="48" t="s">
+        <v>181</v>
       </c>
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
@@ -13799,13 +13799,13 @@
         <v>16</v>
       </c>
       <c r="N14" s="42">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="O14" s="42">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="P14" s="42">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="13.5" x14ac:dyDescent="0.25">
@@ -13867,8 +13867,8 @@
       <c r="D16" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="E16" s="44" t="s">
-        <v>141</v>
+      <c r="E16" s="48" t="s">
+        <v>181</v>
       </c>
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
@@ -13876,28 +13876,28 @@
         <v>20</v>
       </c>
       <c r="I16" s="42">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J16" s="42">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K16" s="42">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L16" s="42">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M16" s="42">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N16" s="42">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O16" s="42">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P16" s="42">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="13.5" x14ac:dyDescent="0.25">
@@ -13959,8 +13959,8 @@
       <c r="D18" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="E18" s="44" t="s">
-        <v>141</v>
+      <c r="E18" s="48" t="s">
+        <v>181</v>
       </c>
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
@@ -14005,8 +14005,8 @@
       <c r="D19" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="E19" s="44" t="s">
-        <v>141</v>
+      <c r="E19" s="48" t="s">
+        <v>181</v>
       </c>
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
@@ -14014,28 +14014,28 @@
         <v>20</v>
       </c>
       <c r="I19" s="42">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J19" s="42">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K19" s="42">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L19" s="42">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M19" s="42">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N19" s="42">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="O19" s="42">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="P19" s="42">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="13.5" x14ac:dyDescent="0.25">
@@ -14097,7 +14097,7 @@
       <c r="D21" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="E21" s="70" t="s">
+      <c r="E21" s="47" t="s">
         <v>185</v>
       </c>
       <c r="F21" s="43"/>
@@ -14131,45 +14131,45 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="63"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="63"/>
-      <c r="O22" s="63"/>
-      <c r="P22" s="63"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="B23" s="60">
+      <c r="B23" s="62">
         <f>SUM(B5:B22)</f>
         <v>224</v>
       </c>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="62"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="64"/>
     </row>
     <row r="24" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
@@ -30689,9 +30689,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30702,38 +30702,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="68" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="59"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="68" t="s">
+      <c r="F2" s="61"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="69"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="71"/>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -30815,35 +30815,35 @@
       </c>
       <c r="C5" s="26">
         <f>SUM('Sprint 1'!I5:I21)</f>
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D5" s="26">
         <f>SUM('Sprint 1'!J5:J21)</f>
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="E5" s="26">
         <f>SUM('Sprint 1'!K5:K21)</f>
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="F5" s="26">
         <f>SUM('Sprint 1'!L5:L21)</f>
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="G5" s="26">
         <f>SUM('Sprint 1'!M5:M21)</f>
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="H5" s="26">
         <f>SUM('Sprint 1'!N5:N21)</f>
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="I5" s="26">
         <f>SUM('Sprint 1'!O5:O21)</f>
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="J5" s="26">
         <f>SUM('Sprint 1'!P5:P21)</f>
-        <v>162</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -41855,13 +41855,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">

--- a/Sprint_Docs/Sprint1/FinalSprint1Doc.xlsx
+++ b/Sprint_Docs/Sprint1/FinalSprint1Doc.xlsx
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="183">
   <si>
     <t>User Stories</t>
   </si>
@@ -708,6 +708,12 @@
   <si>
     <t>Total Hours</t>
   </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>in progress</t>
+  </si>
 </sst>
 </file>
 
@@ -827,7 +833,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -873,6 +879,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE7AF13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,7 +1026,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1220,6 +1232,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1705,28 +1720,28 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>147.0</c:v>
+                  <c:v>214.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>128.625</c:v>
+                  <c:v>187.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110.25</c:v>
+                  <c:v>160.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>91.875</c:v>
+                  <c:v>133.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>73.5</c:v>
+                  <c:v>107.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55.125</c:v>
+                  <c:v>80.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36.75</c:v>
+                  <c:v>53.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.375</c:v>
+                  <c:v>26.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.0</c:v>
@@ -1743,11 +1758,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2147318944"/>
-        <c:axId val="-2125429200"/>
+        <c:axId val="2136737104"/>
+        <c:axId val="2136832448"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="2147318944"/>
+        <c:axId val="2136737104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1786,7 +1801,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2125429200"/>
+        <c:crossAx val="2136832448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1794,7 +1809,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2125429200"/>
+        <c:axId val="2136832448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1847,7 +1862,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2147318944"/>
+        <c:crossAx val="2136737104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5514,9 +5529,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T954"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35:B35"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5579,7 +5594,7 @@
         <v>109</v>
       </c>
       <c r="C5" s="42">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D5" s="42" t="s">
         <v>62</v>
@@ -5607,7 +5622,7 @@
         <v>140</v>
       </c>
       <c r="C7" s="42">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D7" s="42" t="s">
         <v>62</v>
@@ -5649,7 +5664,7 @@
         <v>116</v>
       </c>
       <c r="C10" s="42">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D10" s="42" t="s">
         <v>62</v>
@@ -5663,7 +5678,7 @@
         <v>117</v>
       </c>
       <c r="C11" s="42">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D11" s="42" t="s">
         <v>62</v>
@@ -5691,7 +5706,7 @@
         <v>136</v>
       </c>
       <c r="C13" s="42">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D13" s="42" t="s">
         <v>62</v>
@@ -5761,7 +5776,7 @@
         <v>124</v>
       </c>
       <c r="C18" s="42">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D18" s="42" t="s">
         <v>137</v>
@@ -5775,7 +5790,7 @@
         <v>125</v>
       </c>
       <c r="C19" s="42">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D19" s="42" t="s">
         <v>65</v>
@@ -5789,7 +5804,7 @@
         <v>169</v>
       </c>
       <c r="C20" s="42">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D20" s="42" t="s">
         <v>65</v>
@@ -5831,7 +5846,7 @@
         <v>128</v>
       </c>
       <c r="C23" s="42">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D23" s="42" t="s">
         <v>65</v>
@@ -5845,7 +5860,7 @@
         <v>129</v>
       </c>
       <c r="C24" s="42">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D24" s="42" t="s">
         <v>65</v>
@@ -5859,7 +5874,7 @@
         <v>130</v>
       </c>
       <c r="C25" s="42">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D25" s="42" t="s">
         <v>62</v>
@@ -5887,7 +5902,7 @@
         <v>132</v>
       </c>
       <c r="C27" s="42">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D27" s="42" t="s">
         <v>137</v>
@@ -5971,7 +5986,7 @@
         <v>135</v>
       </c>
       <c r="C33" s="42">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D33" s="42" t="s">
         <v>65</v>
@@ -5990,7 +6005,7 @@
       <c r="B35" s="54"/>
       <c r="C35" s="55">
         <f>SUM(C4:C34)</f>
-        <v>274</v>
+        <v>384</v>
       </c>
       <c r="D35" s="56"/>
     </row>
@@ -13169,9 +13184,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T992"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13344,8 +13359,8 @@
       <c r="D6" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="44" t="s">
-        <v>141</v>
+      <c r="E6" s="70" t="s">
+        <v>181</v>
       </c>
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
@@ -13366,7 +13381,7 @@
         <v>110</v>
       </c>
       <c r="B7" s="42">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C7" s="42" t="s">
         <v>62</v>
@@ -13405,7 +13420,7 @@
         <v>144</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
@@ -13434,8 +13449,8 @@
       <c r="D9" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="E9" s="44" t="s">
-        <v>141</v>
+      <c r="E9" s="70" t="s">
+        <v>181</v>
       </c>
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
@@ -13456,7 +13471,7 @@
         <v>114</v>
       </c>
       <c r="B10" s="42">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C10" s="42" t="s">
         <v>62</v>
@@ -13516,7 +13531,7 @@
         <v>117</v>
       </c>
       <c r="B12" s="42">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C12" s="42" t="s">
         <v>62</v>
@@ -13546,7 +13561,7 @@
         <v>118</v>
       </c>
       <c r="B13" s="42">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C13" s="42" t="s">
         <v>62</v>
@@ -13576,7 +13591,7 @@
         <v>136</v>
       </c>
       <c r="B14" s="42">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C14" s="42" t="s">
         <v>62</v>
@@ -13606,7 +13621,7 @@
         <v>119</v>
       </c>
       <c r="B15" s="42">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C15" s="42" t="s">
         <v>62</v>
@@ -13636,7 +13651,7 @@
         <v>120</v>
       </c>
       <c r="B16" s="42">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C16" s="42" t="s">
         <v>62</v>
@@ -13666,7 +13681,7 @@
         <v>121</v>
       </c>
       <c r="B17" s="42">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C17" s="42" t="s">
         <v>62</v>
@@ -13696,7 +13711,7 @@
         <v>122</v>
       </c>
       <c r="B18" s="42">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C18" s="42" t="s">
         <v>62</v>
@@ -13726,7 +13741,7 @@
         <v>127</v>
       </c>
       <c r="B19" s="42">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C19" s="42" t="s">
         <v>62</v>
@@ -13756,7 +13771,7 @@
         <v>130</v>
       </c>
       <c r="B20" s="42">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C20" s="42" t="s">
         <v>62</v>
@@ -13786,7 +13801,7 @@
         <v>139</v>
       </c>
       <c r="B21" s="43">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C21" s="42" t="s">
         <v>62</v>
@@ -13835,7 +13850,7 @@
       </c>
       <c r="B23" s="60">
         <f>SUM(B5:B22)</f>
-        <v>147</v>
+        <v>214</v>
       </c>
       <c r="C23" s="61"/>
       <c r="D23" s="61"/>
@@ -30342,7 +30357,7 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:P3"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E21">
       <formula1>"to do, parked, in progress, done, blocked, dropped"</formula1>
     </dataValidation>
@@ -30371,8 +30386,8 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView zoomScale="172" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -30533,35 +30548,35 @@
       </c>
       <c r="B6" s="27">
         <f>SUM('Sprint 1'!$B$5:$B$21)-(((B4-1)*SUM('Sprint 1'!$B$5:$B$21))/($J$4-1))</f>
-        <v>147</v>
+        <v>214</v>
       </c>
       <c r="C6" s="28">
         <f>SUM('Sprint 1'!$B$5:$B$21)-(((C4-1)*SUM('Sprint 1'!$B$5:$B$21))/($J$4-1))</f>
-        <v>128.625</v>
+        <v>187.25</v>
       </c>
       <c r="D6" s="29">
         <f>SUM('Sprint 1'!$B$5:$B$21)-(((D4-1)*SUM('Sprint 1'!$B$5:$B$21))/($J$4-1))</f>
-        <v>110.25</v>
+        <v>160.5</v>
       </c>
       <c r="E6" s="27">
         <f>SUM('Sprint 1'!$B$5:$B$21)-(((E4-1)*SUM('Sprint 1'!$B$5:$B$21))/($J$4-1))</f>
-        <v>91.875</v>
+        <v>133.75</v>
       </c>
       <c r="F6" s="28">
         <f>SUM('Sprint 1'!$B$5:$B$21)-(((F4-1)*SUM('Sprint 1'!$B$5:$B$21))/($J$4-1))</f>
-        <v>73.5</v>
+        <v>107</v>
       </c>
       <c r="G6" s="29">
         <f>SUM('Sprint 1'!$B$5:$B$21)-(((G4-1)*SUM('Sprint 1'!$B$5:$B$21))/($J$4-1))</f>
-        <v>55.125</v>
+        <v>80.25</v>
       </c>
       <c r="H6" s="27">
         <f>SUM('Sprint 1'!$B$5:$B$21)-(((H4-1)*SUM('Sprint 1'!$B$5:$B$21))/($J$4-1))</f>
-        <v>36.75</v>
+        <v>53.5</v>
       </c>
       <c r="I6" s="28">
         <f>SUM('Sprint 1'!$B$5:$B$21)-(((I4-1)*SUM('Sprint 1'!$B$5:$B$21))/($J$4-1))</f>
-        <v>18.375</v>
+        <v>26.75</v>
       </c>
       <c r="J6" s="29">
         <f>SUM('Sprint 1'!$B$5:$B$21)-(((J4-1)*SUM('Sprint 1'!$B$5:$B$21))/($J$4-1))</f>

--- a/Sprint_Docs/Sprint1/FinalSprint1Doc.xlsx
+++ b/Sprint_Docs/Sprint1/FinalSprint1Doc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="188">
   <si>
     <t>User Stories</t>
   </si>
@@ -724,6 +724,12 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>wait for events data</t>
+  </si>
+  <si>
+    <t>just a demo</t>
   </si>
 </sst>
 </file>
@@ -1659,19 +1665,19 @@
                   <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>137</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>126</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>114</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>114</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>114</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1784,11 +1790,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="504382480"/>
-        <c:axId val="504383024"/>
+        <c:axId val="1504889680"/>
+        <c:axId val="1504886416"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="504382480"/>
+        <c:axId val="1504889680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1827,7 +1833,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504383024"/>
+        <c:crossAx val="1504886416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1835,7 +1841,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="504383024"/>
+        <c:axId val="1504886416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1888,7 +1894,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504382480"/>
+        <c:crossAx val="1504889680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5555,9 +5561,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T954"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -13210,9 +13216,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T992"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13355,8 +13361,8 @@
       <c r="D5" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="E5" s="48" t="s">
-        <v>181</v>
+      <c r="E5" s="47" t="s">
+        <v>185</v>
       </c>
       <c r="F5" s="43" t="s">
         <v>182</v>
@@ -13384,10 +13390,10 @@
         <v>5</v>
       </c>
       <c r="O5" s="43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P5" s="43">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="13.5" x14ac:dyDescent="0.25">
@@ -13403,8 +13409,8 @@
       <c r="D6" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="48" t="s">
-        <v>181</v>
+      <c r="E6" s="47" t="s">
+        <v>185</v>
       </c>
       <c r="F6" s="43" t="s">
         <v>184</v>
@@ -13432,10 +13438,10 @@
         <v>5</v>
       </c>
       <c r="O6" s="43">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P6" s="43">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="13.5" x14ac:dyDescent="0.25">
@@ -13499,8 +13505,8 @@
       <c r="D8" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="E8" s="48" t="s">
-        <v>181</v>
+      <c r="E8" s="47" t="s">
+        <v>185</v>
       </c>
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
@@ -13526,10 +13532,10 @@
         <v>4</v>
       </c>
       <c r="O8" s="42">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P8" s="42">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="13.5" x14ac:dyDescent="0.25">
@@ -13591,8 +13597,8 @@
       <c r="D10" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="E10" s="44" t="s">
-        <v>141</v>
+      <c r="E10" s="48" t="s">
+        <v>181</v>
       </c>
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
@@ -13637,8 +13643,8 @@
       <c r="D11" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="E11" s="44" t="s">
-        <v>141</v>
+      <c r="E11" s="48" t="s">
+        <v>181</v>
       </c>
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
@@ -13683,8 +13689,8 @@
       <c r="D12" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="E12" s="44" t="s">
-        <v>141</v>
+      <c r="E12" s="48" t="s">
+        <v>181</v>
       </c>
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
@@ -13753,13 +13759,13 @@
         <v>6</v>
       </c>
       <c r="N13" s="42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O13" s="42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P13" s="42">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="13.5" x14ac:dyDescent="0.25">
@@ -13821,10 +13827,12 @@
       <c r="D15" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="E15" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="F15" s="43"/>
+      <c r="E15" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>186</v>
+      </c>
       <c r="G15" s="43"/>
       <c r="H15" s="42">
         <v>16</v>
@@ -13842,16 +13850,16 @@
         <v>16</v>
       </c>
       <c r="M15" s="42">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N15" s="42">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="O15" s="42">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="P15" s="42">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="13.5" x14ac:dyDescent="0.25">
@@ -13867,8 +13875,8 @@
       <c r="D16" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="E16" s="48" t="s">
-        <v>181</v>
+      <c r="E16" s="44" t="s">
+        <v>141</v>
       </c>
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
@@ -13959,8 +13967,8 @@
       <c r="D18" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="E18" s="48" t="s">
-        <v>181</v>
+      <c r="E18" s="47" t="s">
+        <v>185</v>
       </c>
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
@@ -13986,10 +13994,10 @@
         <v>4</v>
       </c>
       <c r="O18" s="42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P18" s="42">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="13.5" x14ac:dyDescent="0.25">
@@ -14005,8 +14013,8 @@
       <c r="D19" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="E19" s="48" t="s">
-        <v>181</v>
+      <c r="E19" s="47" t="s">
+        <v>185</v>
       </c>
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
@@ -14032,10 +14040,10 @@
         <v>11</v>
       </c>
       <c r="O19" s="42">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="P19" s="42">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="13.5" x14ac:dyDescent="0.25">
@@ -14051,10 +14059,12 @@
       <c r="D20" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="E20" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="F20" s="43"/>
+      <c r="E20" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>187</v>
+      </c>
       <c r="G20" s="43"/>
       <c r="H20" s="42">
         <v>8</v>
@@ -14069,19 +14079,19 @@
         <v>8</v>
       </c>
       <c r="L20" s="42">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M20" s="42">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N20" s="42">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O20" s="42">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P20" s="42">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="13.5" x14ac:dyDescent="0.25">
@@ -30691,7 +30701,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30827,23 +30837,23 @@
       </c>
       <c r="F5" s="26">
         <f>SUM('Sprint 1'!L5:L21)</f>
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G5" s="26">
         <f>SUM('Sprint 1'!M5:M21)</f>
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H5" s="26">
         <f>SUM('Sprint 1'!N5:N21)</f>
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="I5" s="26">
         <f>SUM('Sprint 1'!O5:O21)</f>
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="J5" s="26">
         <f>SUM('Sprint 1'!P5:P21)</f>
-        <v>114</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
